--- a/console/IOT/IOT-Edge/物联网智能边缘计算-控制台待翻译-20191111.xlsx
+++ b/console/IOT/IOT-Edge/物联网智能边缘计算-控制台待翻译-20191111.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushaoqian/Desktop/work/iot/code/ConsoleContent/console/IOT/IOT-Edge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB6519-2F0C-D045-8081-4FCA6B784DD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F62DADA-5E25-FA45-9B2A-FD2F6E08FF88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50080" yWindow="-3920" windowWidth="35020" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56840" yWindow="-6220" windowWidth="35020" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物联网边缘计算" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -49,20 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 安装Edge系统前，请先安装docker和docker-compose。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 解压缩Edge安装包至任意目录下（${destdir}）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 拷贝边缘节点配置文件**configuration.toml**至安装包解压目录 sys-mgmt-agent/res/ 下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4. 进入解压缩后的目录${destdir}，执行安装脚本，完成Edge系统安装。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -688,90 +675,89 @@
     <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="33">
+    <row r="2" spans="1:2" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="33">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="97">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1">
+    <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="49">
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="97">
+    <row r="6" spans="1:2" ht="33">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1">
+    <row r="7" spans="1:2" ht="29.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:2" ht="65">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33">
+    <row r="9" spans="1:2" ht="17">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="49">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="65">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" ht="49">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="49">
+    <row r="13" spans="1:2" ht="17">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:2" ht="49">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="49">
+    <row r="15" spans="1:2" ht="17">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:2" ht="17">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="49">
+    <row r="17" spans="1:1" ht="17">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -781,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17">
+    <row r="19" spans="1:1" ht="33">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -791,22 +777,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17">
+    <row r="21" spans="1:1" ht="33">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="33">
+    <row r="22" spans="1:1" ht="17">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17">
+    <row r="23" spans="1:1" ht="49">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="33">
+    <row r="24" spans="1:1" ht="17">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -816,12 +802,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="49">
+    <row r="26" spans="1:1" ht="17">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17">
+    <row r="27" spans="1:1" ht="33">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -831,12 +817,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17">
+    <row r="29" spans="1:1" ht="33">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="33">
+    <row r="30" spans="1:1" ht="17">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -846,7 +832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="33">
+    <row r="32" spans="1:1" ht="17">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -856,8 +842,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -871,24 +857,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
-        <v>38</v>
+    <row r="37" spans="1:1" ht="17">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17">
@@ -908,22 +894,22 @@
     </row>
     <row r="44" spans="1:1" ht="17">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17">
       <c r="A47" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17">
@@ -934,21 +920,6 @@
     <row r="49" spans="1:1" ht="17">
       <c r="A49" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="17">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
